--- a/StructureDefinition-Invoice-it-730.xlsx
+++ b/StructureDefinition-Invoice-it-730.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-21T10:47:00+00:00</t>
+    <t>2021-10-21T10:50:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
